--- a/statistics/HistoricalDistanceData/historical_distance/Q757986-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q757986-en.xlsx
@@ -34,15 +34,15 @@
     <t>In quotes: Reaction to Arizona shooting</t>
   </si>
   <si>
+    <t>Giffords making 'lightning' fast progress, doctors say</t>
+  </si>
+  <si>
     <t>Giffords arrives in Houston</t>
   </si>
   <si>
     <t>Alleged Tucson gunman indicted on 49 charges in shooting</t>
   </si>
   <si>
-    <t>Giffords making 'lightning' fast progress, doctors say</t>
-  </si>
-  <si>
     <t>2011-01-09T14:50:12UTC</t>
   </si>
   <si>
@@ -58,13 +58,13 @@
     <t>https://www.bbc.co.uk/news/world-us-canada-12144057</t>
   </si>
   <si>
+    <t>http://www.cnn.com/2011/CRIME/01/26/arizona.shooting.giffords/index.html</t>
+  </si>
+  <si>
     <t>http://www.cnn.com/2011/CRIME/01/21/arizona.shooting/index.html</t>
   </si>
   <si>
     <t>http://www.cnn.com/2011/CRIME/03/04/arizona.loughner/</t>
-  </si>
-  <si>
-    <t>http://www.cnn.com/2011/CRIME/01/26/arizona.shooting.giffords/index.html</t>
   </si>
 </sst>
 </file>
